--- a/git.xlsx
+++ b/git.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>status</t>
   </si>
@@ -261,6 +261,9 @@
   <si>
     <t>Что делают детально:</t>
   </si>
+  <si>
+    <t>Понять, что это такое и научиться пользоваться ветками!</t>
+  </si>
 </sst>
 </file>
 
@@ -3771,10 +3774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,6 +3943,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
